--- a/outcome/simulate data/B_Rubella.xlsx
+++ b/outcome/simulate data/B_Rubella.xlsx
@@ -412,25 +412,25 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>620.546576196906</v>
+        <v>5505.64345127063</v>
       </c>
       <c r="C2" t="n">
-        <v>-3666.94257668552</v>
+        <v>-13337.1253935064</v>
       </c>
       <c r="D2" t="n">
-        <v>-5936.60223442054</v>
+        <v>-23311.8846901603</v>
       </c>
       <c r="E2" t="n">
-        <v>4908.03572907934</v>
+        <v>24348.4122960477</v>
       </c>
       <c r="F2" t="n">
-        <v>7177.69538681436</v>
+        <v>34323.1715927015</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
       </c>
       <c r="H2" t="n">
-        <v>-83.0561901349683</v>
+        <v>-83.9273478999361</v>
       </c>
       <c r="I2" t="n">
         <v>-2768.92942015876</v>
@@ -450,25 +450,25 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>279.520479046708</v>
+        <v>2489.11704989922</v>
       </c>
       <c r="C3" t="n">
-        <v>-1715.66726543848</v>
+        <v>-6374.19923132671</v>
       </c>
       <c r="D3" t="n">
-        <v>-2771.85585782733</v>
+        <v>-11066.1554509058</v>
       </c>
       <c r="E3" t="n">
-        <v>2274.7082235319</v>
+        <v>11352.4333311251</v>
       </c>
       <c r="F3" t="n">
-        <v>3330.89681592075</v>
+        <v>16044.3895507042</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
       </c>
       <c r="H3" t="n">
-        <v>-341.186648696481</v>
+        <v>-341.752618486192</v>
       </c>
       <c r="I3" t="n">
         <v>-4479.34335457767</v>
@@ -488,25 +488,25 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>142.598690326988</v>
+        <v>1236.74677356895</v>
       </c>
       <c r="C4" t="n">
-        <v>-908.875090217372</v>
+        <v>-3343.52069589339</v>
       </c>
       <c r="D4" t="n">
-        <v>-1465.4916869645</v>
+        <v>-5768.16783233824</v>
       </c>
       <c r="E4" t="n">
-        <v>1194.07247087135</v>
+        <v>5817.01424303128</v>
       </c>
       <c r="F4" t="n">
-        <v>1750.68906761848</v>
+        <v>8241.66137947613</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
       </c>
       <c r="H4" t="n">
-        <v>-400.670159478048</v>
+        <v>-405.563926450563</v>
       </c>
       <c r="I4" t="n">
         <v>-5568.53879486713</v>
@@ -526,25 +526,25 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>107.149081003263</v>
+        <v>1020.39960065105</v>
       </c>
       <c r="C5" t="n">
-        <v>-708.977050108608</v>
+        <v>-2908.7382576287</v>
       </c>
       <c r="D5" t="n">
-        <v>-1141.00812688992</v>
+        <v>-4988.69819889679</v>
       </c>
       <c r="E5" t="n">
-        <v>923.275212115134</v>
+        <v>4949.53745893081</v>
       </c>
       <c r="F5" t="n">
-        <v>1355.30628889644</v>
+        <v>7029.4974001989</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
       </c>
       <c r="H5" t="n">
-        <v>-352.959577898792</v>
+        <v>-362.366479353132</v>
       </c>
       <c r="I5" t="n">
         <v>-6174.61040997597</v>
@@ -564,25 +564,25 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>112.526192704686</v>
+        <v>1086.39736873022</v>
       </c>
       <c r="C6" t="n">
-        <v>-772.759123762937</v>
+        <v>-3261.72889103639</v>
       </c>
       <c r="D6" t="n">
-        <v>-1241.40086178831</v>
+        <v>-5563.48789418066</v>
       </c>
       <c r="E6" t="n">
-        <v>997.811509172309</v>
+        <v>5434.52362849683</v>
       </c>
       <c r="F6" t="n">
-        <v>1466.45324719768</v>
+        <v>7736.2826316411</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
       </c>
       <c r="H6" t="n">
-        <v>-295.596873920353</v>
+        <v>-312.279575018169</v>
       </c>
       <c r="I6" t="n">
         <v>-6673.66962904309</v>
@@ -602,25 +602,25 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>123.010391398929</v>
+        <v>1268.7177523408</v>
       </c>
       <c r="C7" t="n">
-        <v>-876.549304387704</v>
+        <v>-4007.77128069096</v>
       </c>
       <c r="D7" t="n">
-        <v>-1405.68424470577</v>
+        <v>-6800.97585001383</v>
       </c>
       <c r="E7" t="n">
-        <v>1122.57008718556</v>
+        <v>6545.20678537256</v>
       </c>
       <c r="F7" t="n">
-        <v>1651.70502750363</v>
+        <v>9338.41135469543</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
       </c>
       <c r="H7" t="n">
-        <v>-208.093635302599</v>
+        <v>-230.933687991452</v>
       </c>
       <c r="I7" t="n">
         <v>-7066.43872573398</v>
@@ -640,25 +640,25 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>151.005810626187</v>
+        <v>1718.03924640142</v>
       </c>
       <c r="C8" t="n">
-        <v>-1116.28386939495</v>
+        <v>-5704.7893770808</v>
       </c>
       <c r="D8" t="n">
-        <v>-1787.14650224246</v>
+        <v>-9634.19749270765</v>
       </c>
       <c r="E8" t="n">
-        <v>1418.29549064732</v>
+        <v>9140.86786988363</v>
       </c>
       <c r="F8" t="n">
-        <v>2089.15812349484</v>
+        <v>13070.2759855105</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
       </c>
       <c r="H8" t="n">
-        <v>-77.6209960752814</v>
+        <v>-108.238259576099</v>
       </c>
       <c r="I8" t="n">
         <v>-7343.40398109179</v>
@@ -678,25 +678,25 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>161.070206015687</v>
+        <v>1722.54514599366</v>
       </c>
       <c r="C9" t="n">
-        <v>-1234.9597476805</v>
+        <v>-6007.19247829894</v>
       </c>
       <c r="D9" t="n">
-        <v>-1973.97336472108</v>
+        <v>-10099.0684050144</v>
       </c>
       <c r="E9" t="n">
-        <v>1557.10015971187</v>
+        <v>9452.28277028625</v>
       </c>
       <c r="F9" t="n">
-        <v>2296.11377675245</v>
+        <v>13544.1586970017</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
       </c>
       <c r="H9" t="n">
-        <v>10.948839819235</v>
+        <v>-35.8076373498678</v>
       </c>
       <c r="I9" t="n">
         <v>-7848.53097427583</v>
@@ -716,25 +716,25 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>153.061873736231</v>
+        <v>1573.78916190409</v>
       </c>
       <c r="C10" t="n">
-        <v>-1216.94258452008</v>
+        <v>-5759.55314179319</v>
       </c>
       <c r="D10" t="n">
-        <v>-1942.17913648454</v>
+        <v>-9641.59006120408</v>
       </c>
       <c r="E10" t="n">
-        <v>1523.06633199255</v>
+        <v>8907.13146560138</v>
       </c>
       <c r="F10" t="n">
-        <v>2248.30288395701</v>
+        <v>12789.1683850123</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
       </c>
       <c r="H10" t="n">
-        <v>65.1780869168268</v>
+        <v>-0.710737982188569</v>
       </c>
       <c r="I10" t="n">
         <v>-8415.5268090927</v>
@@ -754,25 +754,25 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>494.591088823711</v>
+        <v>5000.46651110586</v>
       </c>
       <c r="C11" t="n">
-        <v>-4076.90784706036</v>
+        <v>-19189.8150661007</v>
       </c>
       <c r="D11" t="n">
-        <v>-6496.91320221773</v>
+        <v>-31995.3766074344</v>
       </c>
       <c r="E11" t="n">
-        <v>5066.09002470778</v>
+        <v>29190.7480883125</v>
       </c>
       <c r="F11" t="n">
-        <v>7486.09537986515</v>
+        <v>41996.3096296461</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
       </c>
       <c r="H11" t="n">
-        <v>373.432757078229</v>
+        <v>276.295734648371</v>
       </c>
       <c r="I11" t="n">
         <v>-8305.09988526853</v>
@@ -792,25 +792,25 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>898.473962279414</v>
+        <v>8709.35618007746</v>
       </c>
       <c r="C12" t="n">
-        <v>-7677.00341937196</v>
+        <v>-35023.8994803161</v>
       </c>
       <c r="D12" t="n">
-        <v>-12216.5869296575</v>
+        <v>-58174.8865812575</v>
       </c>
       <c r="E12" t="n">
-        <v>9473.95134393078</v>
+        <v>52442.6118404711</v>
       </c>
       <c r="F12" t="n">
-        <v>14013.5348542163</v>
+        <v>75593.5989414124</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
       </c>
       <c r="H12" t="n">
-        <v>717.791393648376</v>
+        <v>572.59837733433</v>
       </c>
       <c r="I12" t="n">
         <v>-7937.87475180546</v>
@@ -830,25 +830,25 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>1028.50020896457</v>
+        <v>9717.23703151929</v>
       </c>
       <c r="C13" t="n">
-        <v>-9107.85525125145</v>
+        <v>-40922.3722436871</v>
       </c>
       <c r="D13" t="n">
-        <v>-14473.7177045821</v>
+        <v>-67729.3621058378</v>
       </c>
       <c r="E13" t="n">
-        <v>11164.8556691806</v>
+        <v>60356.8463067257</v>
       </c>
       <c r="F13" t="n">
-        <v>16530.7181225113</v>
+        <v>87163.8361688763</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
       </c>
       <c r="H13" t="n">
-        <v>855.593248539913</v>
+        <v>653.373799902059</v>
       </c>
       <c r="I13" t="n">
         <v>-8057.55434817055</v>
@@ -868,25 +868,25 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>620.550669913041</v>
+        <v>5505.68357760438</v>
       </c>
       <c r="C14" t="n">
-        <v>-5694.3205375973</v>
+        <v>-24266.6303443344</v>
       </c>
       <c r="D14" t="n">
-        <v>-9037.21142604258</v>
+        <v>-40027.141313935</v>
       </c>
       <c r="E14" t="n">
-        <v>6935.42187742338</v>
+        <v>35277.9974995432</v>
       </c>
       <c r="F14" t="n">
-        <v>10278.3127658687</v>
+        <v>51038.5084691438</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
       </c>
       <c r="H14" t="n">
-        <v>574.06773233859</v>
+        <v>364.679467550285</v>
       </c>
       <c r="I14" t="n">
         <v>-8897.42995631959</v>
@@ -906,25 +906,25 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>279.522323029963</v>
+        <v>2489.13519112873</v>
       </c>
       <c r="C15" t="n">
-        <v>-2657.44858784865</v>
+        <v>-11475.857776808</v>
       </c>
       <c r="D15" t="n">
-        <v>-4212.18707339818</v>
+        <v>-18868.4784994915</v>
       </c>
       <c r="E15" t="n">
-        <v>3216.49323390857</v>
+        <v>16454.1281590655</v>
       </c>
       <c r="F15" t="n">
-        <v>4771.2317194581</v>
+        <v>23846.748881749</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
       </c>
       <c r="H15" t="n">
-        <v>199.791362870051</v>
+        <v>70.03358757577</v>
       </c>
       <c r="I15" t="n">
         <v>-9953.75752530468</v>
@@ -944,25 +944,25 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>142.59963104374</v>
+        <v>1236.75578724995</v>
       </c>
       <c r="C16" t="n">
-        <v>-1404.37938291264</v>
+        <v>-5961.19498561113</v>
       </c>
       <c r="D16" t="n">
-        <v>-2223.30060560052</v>
+        <v>-9771.55995797316</v>
       </c>
       <c r="E16" t="n">
-        <v>1689.57864500012</v>
+        <v>8434.70656011103</v>
       </c>
       <c r="F16" t="n">
-        <v>2508.499867688</v>
+        <v>12245.0715324731</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
       </c>
       <c r="H16" t="n">
-        <v>-38.5905523343381</v>
+        <v>-36.2113281866149</v>
       </c>
       <c r="I16" t="n">
         <v>-10547.2184608875</v>
@@ -982,25 +982,25 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>107.149787860634</v>
+        <v>1020.40703754654</v>
       </c>
       <c r="C17" t="n">
-        <v>-1092.97940161259</v>
+        <v>-5139.54241494674</v>
       </c>
       <c r="D17" t="n">
-        <v>-1728.28941833563</v>
+        <v>-8400.42268017415</v>
       </c>
       <c r="E17" t="n">
-        <v>1307.27897733386</v>
+        <v>7180.35649003982</v>
       </c>
       <c r="F17" t="n">
-        <v>1942.5889940569</v>
+        <v>10441.2367552672</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
       </c>
       <c r="H17" t="n">
-        <v>-172.419870691874</v>
+        <v>-20.5146619084831</v>
       </c>
       <c r="I17" t="n">
         <v>-10878.8693541505</v>
@@ -1020,25 +1020,25 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>112.526935034606</v>
+        <v>1086.40528663188</v>
       </c>
       <c r="C18" t="n">
-        <v>-1188.69804489173</v>
+        <v>-5715.40349555561</v>
       </c>
       <c r="D18" t="n">
-        <v>-1877.5249403698</v>
+        <v>-9316.06356537293</v>
       </c>
       <c r="E18" t="n">
-        <v>1413.75191496095</v>
+        <v>7888.21406881936</v>
       </c>
       <c r="F18" t="n">
-        <v>2102.57881043901</v>
+        <v>11488.8741386367</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
       </c>
       <c r="H18" t="n">
-        <v>-271.211906501532</v>
+        <v>55.6070238603068</v>
       </c>
       <c r="I18" t="n">
         <v>-11112.2338388148</v>
@@ -1058,25 +1058,25 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>123.011202892608</v>
+        <v>1268.72699903329</v>
       </c>
       <c r="C19" t="n">
-        <v>-1345.53988186806</v>
+        <v>-6968.54277681823</v>
       </c>
       <c r="D19" t="n">
-        <v>-2122.94386670694</v>
+        <v>-11329.0899953602</v>
       </c>
       <c r="E19" t="n">
-        <v>1591.56228765327</v>
+        <v>9505.9967748848</v>
       </c>
       <c r="F19" t="n">
-        <v>2368.96627249215</v>
+        <v>13866.5439934267</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
       </c>
       <c r="H19" t="n">
-        <v>-319.117695265267</v>
+        <v>191.815755907418</v>
       </c>
       <c r="I19" t="n">
         <v>-11284.1740523503</v>
@@ -1096,25 +1096,25 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>151.00680680431</v>
+        <v>1718.05176784724</v>
       </c>
       <c r="C20" t="n">
-        <v>-1710.13451068058</v>
+        <v>-9848.15611595497</v>
       </c>
       <c r="D20" t="n">
-        <v>-2695.36321097932</v>
+        <v>-15970.9367203547</v>
       </c>
       <c r="E20" t="n">
-        <v>2012.1481242892</v>
+        <v>13284.2596516495</v>
       </c>
       <c r="F20" t="n">
-        <v>2997.37682458793</v>
+        <v>19407.0402560491</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
       </c>
       <c r="H20" t="n">
-        <v>-331.392684389962</v>
+        <v>333.139618145076</v>
       </c>
       <c r="I20" t="n">
         <v>-11372.9644539447</v>
@@ -1134,25 +1134,25 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>161.071268588146</v>
+        <v>1722.55770027946</v>
       </c>
       <c r="C21" t="n">
-        <v>-1888.35571491117</v>
+        <v>-10300.9499461954</v>
       </c>
       <c r="D21" t="n">
-        <v>-2973.25682604163</v>
+        <v>-16665.8104220117</v>
       </c>
       <c r="E21" t="n">
-        <v>2210.49825208746</v>
+        <v>13746.0653467543</v>
       </c>
       <c r="F21" t="n">
-        <v>3295.39936321792</v>
+        <v>20110.9258225707</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
       </c>
       <c r="H21" t="n">
-        <v>-405.149017692386</v>
+        <v>360.800069292915</v>
       </c>
       <c r="I21" t="n">
         <v>-11714.7647289701</v>
@@ -1172,25 +1172,25 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>153.062883478104</v>
+        <v>1573.80063202374</v>
       </c>
       <c r="C22" t="n">
-        <v>-1857.43870776671</v>
+        <v>-9814.7903528092</v>
       </c>
       <c r="D22" t="n">
-        <v>-2921.73396094365</v>
+        <v>-15843.5462504988</v>
       </c>
       <c r="E22" t="n">
-        <v>2163.56447472291</v>
+        <v>12962.3916168567</v>
       </c>
       <c r="F22" t="n">
-        <v>3227.85972789986</v>
+        <v>18991.1475145463</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
       </c>
       <c r="H22" t="n">
-        <v>-469.736451959461</v>
+        <v>321.736201116604</v>
       </c>
       <c r="I22" t="n">
         <v>-12137.9692064777</v>
@@ -1210,25 +1210,25 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>494.59435161751</v>
+        <v>5000.50295559957</v>
       </c>
       <c r="C23" t="n">
-        <v>-6211.89981260122</v>
+        <v>-32510.834360631</v>
       </c>
       <c r="D23" t="n">
-        <v>-9762.10337151387</v>
+        <v>-52368.1368466562</v>
       </c>
       <c r="E23" t="n">
-        <v>7201.08851583624</v>
+        <v>42511.8402718301</v>
       </c>
       <c r="F23" t="n">
-        <v>10751.2920747489</v>
+        <v>62369.1427578554</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
       </c>
       <c r="H23" t="n">
-        <v>-312.91869852618</v>
+        <v>381.341486978531</v>
       </c>
       <c r="I23" t="n">
         <v>-11899.4992538026</v>
@@ -1248,25 +1248,25 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>898.479889469245</v>
+        <v>8709.41965577034</v>
       </c>
       <c r="C24" t="n">
-        <v>-11677.9927795815</v>
+        <v>-59013.365138593</v>
       </c>
       <c r="D24" t="n">
-        <v>-18335.5752563469</v>
+        <v>-94863.6418568212</v>
       </c>
       <c r="E24" t="n">
-        <v>13474.95255852</v>
+        <v>76432.2044501337</v>
       </c>
       <c r="F24" t="n">
-        <v>20132.5350352854</v>
+        <v>112282.481168362</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
       </c>
       <c r="H24" t="n">
-        <v>-121.666575626749</v>
+        <v>357.824741619616</v>
       </c>
       <c r="I24" t="n">
         <v>-11932.8312065282</v>
@@ -1286,25 +1286,25 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>1028.50699393135</v>
+        <v>9717.30785286827</v>
       </c>
       <c r="C25" t="n">
-        <v>-13832.7155722657</v>
+        <v>-68600.1719048392</v>
       </c>
       <c r="D25" t="n">
-        <v>-21699.7715857934</v>
+        <v>-110058.941353164</v>
       </c>
       <c r="E25" t="n">
-        <v>15889.7295601284</v>
+        <v>88034.7876105757</v>
       </c>
       <c r="F25" t="n">
-        <v>23756.7855736561</v>
+        <v>129493.557058901</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
       </c>
       <c r="H25" t="n">
-        <v>-44.0962846885393</v>
+        <v>205.274731360994</v>
       </c>
       <c r="I25" t="n">
         <v>-12176.0018098064</v>
@@ -1324,25 +1324,25 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>620.554763656182</v>
+        <v>5505.72370423057</v>
       </c>
       <c r="C26" t="n">
-        <v>-8635.31767335377</v>
+        <v>-40484.6375890505</v>
       </c>
       <c r="D26" t="n">
-        <v>-13535.0805691502</v>
+        <v>-64830.4642372283</v>
       </c>
       <c r="E26" t="n">
-        <v>9876.42720066614</v>
+        <v>51496.0849975117</v>
       </c>
       <c r="F26" t="n">
-        <v>14776.1900964626</v>
+        <v>75841.9116456894</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
       </c>
       <c r="H26" t="n">
-        <v>-291.519609736155</v>
+        <v>-182.508705238952</v>
       </c>
       <c r="I26" t="n">
         <v>-13088.51699031</v>
@@ -1362,25 +1362,25 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>279.524167025382</v>
+        <v>2489.15333249046</v>
       </c>
       <c r="C27" t="n">
-        <v>-4024.15759474222</v>
+        <v>-19059.4031290723</v>
       </c>
       <c r="D27" t="n">
-        <v>-6302.38910183468</v>
+        <v>-30466.5198678643</v>
       </c>
       <c r="E27" t="n">
-        <v>4583.20592879299</v>
+        <v>24037.7097940532</v>
       </c>
       <c r="F27" t="n">
-        <v>6861.43743588544</v>
+        <v>35444.8265328452</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
       </c>
       <c r="H27" t="n">
-        <v>-587.308074350581</v>
+        <v>-551.632415083228</v>
       </c>
       <c r="I27" t="n">
         <v>-14089.1453754304</v>
@@ -1400,25 +1400,25 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>142.600571766697</v>
+        <v>1236.76480099665</v>
       </c>
       <c r="C28" t="n">
-        <v>-2123.71079012544</v>
+        <v>-9858.66241608694</v>
       </c>
       <c r="D28" t="n">
-        <v>-3323.42355592801</v>
+        <v>-15732.226789543</v>
       </c>
       <c r="E28" t="n">
-        <v>2408.91193365884</v>
+        <v>12332.1920180802</v>
       </c>
       <c r="F28" t="n">
-        <v>3608.62469946141</v>
+        <v>18205.7563915363</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
       </c>
       <c r="H28" t="n">
-        <v>-740.298797400086</v>
+        <v>-735.677715467943</v>
       </c>
       <c r="I28" t="n">
         <v>-14956.4190480777</v>
@@ -1438,25 +1438,25 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>107.150494722669</v>
+        <v>1020.41447449623</v>
       </c>
       <c r="C29" t="n">
-        <v>-1650.62888006059</v>
+        <v>-8465.99413851546</v>
       </c>
       <c r="D29" t="n">
-        <v>-2581.14107306803</v>
+        <v>-13487.7955140986</v>
       </c>
       <c r="E29" t="n">
-        <v>1864.92986950593</v>
+        <v>10506.8230875079</v>
       </c>
       <c r="F29" t="n">
-        <v>2795.44206251337</v>
+        <v>15528.624463091</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
       </c>
       <c r="H29" t="n">
-        <v>-797.994123587256</v>
+        <v>-773.7771417168</v>
       </c>
       <c r="I29" t="n">
         <v>-15379.1546804028</v>
@@ -1476,25 +1476,25 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>112.527677369424</v>
+        <v>1086.41320459124</v>
       </c>
       <c r="C30" t="n">
-        <v>-1792.91599660738</v>
+        <v>-9379.28066524226</v>
       </c>
       <c r="D30" t="n">
-        <v>-2801.59694778929</v>
+        <v>-14919.4843414653</v>
       </c>
       <c r="E30" t="n">
-        <v>2017.97135134623</v>
+        <v>11552.1070744247</v>
       </c>
       <c r="F30" t="n">
-        <v>3026.65230252814</v>
+        <v>17092.3107506478</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
       </c>
       <c r="H30" t="n">
-        <v>-851.546634671558</v>
+        <v>-747.210391701789</v>
       </c>
       <c r="I30" t="n">
         <v>-15772.2292692358</v>
@@ -1514,25 +1514,25 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>123.01201439164</v>
+        <v>1268.73624579317</v>
       </c>
       <c r="C31" t="n">
-        <v>-2027.02480313573</v>
+        <v>-11395.325460633</v>
       </c>
       <c r="D31" t="n">
-        <v>-3165.18554322908</v>
+        <v>-18099.2747729756</v>
       </c>
       <c r="E31" t="n">
-        <v>2273.04883191901</v>
+        <v>13932.7979522194</v>
       </c>
       <c r="F31" t="n">
-        <v>3411.20957201236</v>
+        <v>20636.747264562</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
       </c>
       <c r="H31" t="n">
-        <v>-895.884133143253</v>
+        <v>-679.471163501032</v>
       </c>
       <c r="I31" t="n">
         <v>-16166.3359605118</v>
@@ -1552,25 +1552,25 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>151.007802989004</v>
+        <v>1718.06428938432</v>
       </c>
       <c r="C32" t="n">
-        <v>-2573.29073935285</v>
+        <v>-16050.4860290152</v>
       </c>
       <c r="D32" t="n">
-        <v>-4015.44727356185</v>
+        <v>-25456.58838778</v>
       </c>
       <c r="E32" t="n">
-        <v>2875.30634533086</v>
+        <v>19486.6146077838</v>
       </c>
       <c r="F32" t="n">
-        <v>4317.46287953986</v>
+        <v>28892.7169665486</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="H32" t="n">
-        <v>-917.129320081882</v>
+        <v>-589.714676295087</v>
       </c>
       <c r="I32" t="n">
         <v>-16620.6097170857</v>
@@ -1590,25 +1590,25 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>161.072331167614</v>
+        <v>1722.57025465676</v>
       </c>
       <c r="C33" t="n">
-        <v>-2838.3066703912</v>
+        <v>-16735.5168930584</v>
       </c>
       <c r="D33" t="n">
-        <v>-4426.08200354136</v>
+        <v>-26506.6380001431</v>
       </c>
       <c r="E33" t="n">
-        <v>3160.45133272643</v>
+        <v>20180.6574023719</v>
       </c>
       <c r="F33" t="n">
-        <v>4748.22666587659</v>
+        <v>29951.7785094567</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
       </c>
       <c r="H33" t="n">
-        <v>-989.549726414113</v>
+        <v>-564.486742949298</v>
       </c>
       <c r="I33" t="n">
         <v>-17075.1738896898</v>
@@ -1628,25 +1628,25 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>153.063893226638</v>
+        <v>1573.81210222699</v>
       </c>
       <c r="C34" t="n">
-        <v>-2788.86124785918</v>
+        <v>-15898.1480418333</v>
       </c>
       <c r="D34" t="n">
-        <v>-4346.22234446042</v>
+        <v>-25147.2450462813</v>
       </c>
       <c r="E34" t="n">
-        <v>3094.98903431246</v>
+        <v>19045.7722462873</v>
       </c>
       <c r="F34" t="n">
-        <v>4652.3501309137</v>
+        <v>28294.8692507353</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
       </c>
       <c r="H34" t="n">
-        <v>-1091.17136095294</v>
+        <v>-607.906628801455</v>
       </c>
       <c r="I34" t="n">
         <v>-17664.9299208069</v>
@@ -1666,25 +1666,25 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>494.597614432833</v>
+        <v>5000.53940035889</v>
       </c>
       <c r="C35" t="n">
-        <v>-9317.35599060393</v>
+        <v>-52513.025598869</v>
       </c>
       <c r="D35" t="n">
-        <v>-14511.490475107</v>
+        <v>-82958.867814822</v>
       </c>
       <c r="E35" t="n">
-        <v>10306.5512194696</v>
+        <v>62514.1043995868</v>
       </c>
       <c r="F35" t="n">
-        <v>15500.6857039727</v>
+        <v>92959.9466155398</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
       </c>
       <c r="H35" t="n">
-        <v>-964.0412436017</v>
+        <v>-515.151907618184</v>
       </c>
       <c r="I35" t="n">
         <v>-18107.7388358692</v>
@@ -1704,25 +1704,25 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>898.485816698177</v>
+        <v>8709.48313192584</v>
       </c>
       <c r="C36" t="n">
-        <v>-17498.881750083</v>
+        <v>-95066.5764002382</v>
       </c>
       <c r="D36" t="n">
-        <v>-27237.8598526337</v>
+        <v>-150002.303899516</v>
       </c>
       <c r="E36" t="n">
-        <v>19295.8533834793</v>
+        <v>112485.54266409</v>
       </c>
       <c r="F36" t="n">
-        <v>29034.8314860301</v>
+        <v>167421.270163368</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
       </c>
       <c r="H36" t="n">
-        <v>-749.191372606849</v>
+        <v>-416.559496875012</v>
       </c>
       <c r="I36" t="n">
         <v>-18473.6170664113</v>
@@ -1742,25 +1742,25 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>1028.51377894288</v>
+        <v>9717.37867473341</v>
       </c>
       <c r="C37" t="n">
-        <v>-20708.1141483007</v>
+        <v>-110230.583372861</v>
       </c>
       <c r="D37" t="n">
-        <v>-32214.7899071172</v>
+        <v>-173727.198939558</v>
       </c>
       <c r="E37" t="n">
-        <v>22765.1417061864</v>
+        <v>129665.340722328</v>
       </c>
       <c r="F37" t="n">
-        <v>34271.8174650029</v>
+        <v>193161.956289024</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
       </c>
       <c r="H37" t="n">
-        <v>-619.306356625659</v>
+        <v>-428.880050823261</v>
       </c>
       <c r="I37" t="n">
         <v>-18762.1924159735</v>
